--- a/Epochs/reports/report.xlsx
+++ b/Epochs/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>date</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>epochs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,7 +508,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.48 minutes</t>
+          <t>7.56 minutes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,12 +523,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,580 +538,66 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-03-11 15:20:45</t>
-        </is>
+          <t>2025-03-17 10:22:11</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epochs</t>
+          <t>Backbone EdgeAI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>object-detection</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>139863102765096</t>
+          <t>137764742426668</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.82 minutes</t>
+          <t>19.95 minutes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RepPoints-[20M]</t>
+          <t>ConvNextEdge-[16M]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-03-11 15:35:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Epochs</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>object-detection</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>139863102765096</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.60 minutes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>RepPoints-[37M]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2025-03-11 15:51:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Epochs</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>139863258720298</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.50 minutes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ConvNext-[29M]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2025-03-11 15:54:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Epochs</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>139863258720298</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.15 minutes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ConvNext-[16M]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2025-03-11 15:56:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Epochs</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>139863258720298</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.08 minutes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ConvNext-[16M]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2025-03-11 15:59:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Epochs</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>segmentation</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>139863342313515</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.36 minutes</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SegFormer-[14M]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>91%</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2025-03-11 16:04:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Epochs</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>segmentation</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>139863342313515</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.39 minutes</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>FastVit-[14M]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2025-03-11 16:15:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Epochs</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>segmentation</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>139863342313515</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13.54 minutes</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SegFormer-[14M]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>93%</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2025-03-11 16:29:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Backbone EdgeAI</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>137764742426668</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>19.93 minutes</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ConvNextEdge-[16M]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2025-03-11 16:49:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Backbone EdgeAI</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>137764864798766</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.70 minutes</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ConvNextEdge-[16M]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>83%</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>86%</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2025-03-11 17:00:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Backbone EdgeAI</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>137764891097135</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Error monitoring training: HTTPSConnectionPool(host='api.staging.landing.ai', port=443): Max retries exceeded with url: /v1/projects/137764891097135/train/a9c5a792-fd8b-44e9-b6c4-f224eff05ac3/status (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x107816990&gt;: Failed to establish a new connection: [Errno 8] nodename nor servname provided, or not known'))</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ConvNextEdge-[16M]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>2025-03-11 17:01:23</t>
-        </is>
+          <t>2025-03-17 10:42:24</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Epochs/reports/report.xlsx
+++ b/Epochs/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,10 +501,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>139863102765096</t>
-        </is>
+      <c r="C2" t="n">
+        <v>139863102765096</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -531,11 +529,7 @@
           <t>92%</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>2025-03-17 10:22:11</t>
@@ -556,47 +550,705 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>137764742426668</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.95 minutes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ConvNextEdge-[16M]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-03-17 10:42:24</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>139863102765096</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.84 minutes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-04-01 13:08:55</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>139863102765096</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.12 minutes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-04-01 13:27:18</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>139863102765096</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.39 minutes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-04-01 14:40:55</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>139863258720298</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.36 minutes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ConvNext-[29M]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-04-01 14:54:17</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>139863258720298</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.81 minutes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-04-01 14:57:19</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>139863258720298</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.38 minutes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-04-01 14:59:57</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>139863342313515</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.61 minutes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:05:48</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>139863342313515</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.91 minutes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:16:57</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>139863342313515</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.73 minutes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:30:57</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Backbone EdgeAI</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>137764742426668</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.95 minutes</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.74 minutes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>ConvNextEdge-[16M]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:45:19</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Backbone EdgeAI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>137764864798766</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.71 minutes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ConvNextEdge-[16M]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:57:16</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Backbone EdgeAI</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>137764891097135</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.56 minutes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ConvNextEdge-[16M]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>93%</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2025-03-17 10:42:24</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:19:08</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>20</v>
       </c>
     </row>

--- a/Epochs/reports/report.xlsx
+++ b/Epochs/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,10 +603,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>139863102765096</t>
-        </is>
+      <c r="C4" t="n">
+        <v>139863102765096</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -633,11 +631,7 @@
           <t>93%</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>2025-04-01 13:08:55</t>
@@ -658,10 +652,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>139863102765096</t>
-        </is>
+      <c r="C5" t="n">
+        <v>139863102765096</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -688,11 +680,7 @@
           <t>95%</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>2025-04-01 13:27:18</t>
@@ -713,10 +701,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>139863102765096</t>
-        </is>
+      <c r="C6" t="n">
+        <v>139863102765096</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -743,11 +729,7 @@
           <t>92%</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>2025-04-01 14:40:55</t>
@@ -768,10 +750,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>139863258720298</t>
-        </is>
+      <c r="C7" t="n">
+        <v>139863258720298</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -798,11 +778,7 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>2025-04-01 14:54:17</t>
@@ -823,10 +799,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>139863258720298</t>
-        </is>
+      <c r="C8" t="n">
+        <v>139863258720298</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -853,11 +827,7 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>2025-04-01 14:57:19</t>
@@ -878,10 +848,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>139863258720298</t>
-        </is>
+      <c r="C9" t="n">
+        <v>139863258720298</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -908,11 +876,7 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>2025-04-01 14:59:57</t>
@@ -933,10 +897,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>139863342313515</t>
-        </is>
+      <c r="C10" t="n">
+        <v>139863342313515</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -963,11 +925,7 @@
           <t>91%</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>2025-04-01 15:05:48</t>
@@ -988,10 +946,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>139863342313515</t>
-        </is>
+      <c r="C11" t="n">
+        <v>139863342313515</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1018,11 +974,7 @@
           <t>94%</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>2025-04-01 15:16:57</t>
@@ -1043,10 +995,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>139863342313515</t>
-        </is>
+      <c r="C12" t="n">
+        <v>139863342313515</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1073,11 +1023,7 @@
           <t>92%</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>2025-04-01 15:30:57</t>
@@ -1098,10 +1044,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>137764742426668</t>
-        </is>
+      <c r="C13" t="n">
+        <v>137764742426668</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1123,16 +1067,8 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>2025-04-01 15:45:19</t>
@@ -1153,10 +1089,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>137764864798766</t>
-        </is>
+      <c r="C14" t="n">
+        <v>137764864798766</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1178,16 +1112,8 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>2025-04-01 15:57:16</t>
@@ -1208,10 +1134,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>137764891097135</t>
-        </is>
+      <c r="C15" t="n">
+        <v>137764891097135</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1228,16 +1152,8 @@
           <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>93%</t>
@@ -1250,6 +1166,942 @@
       </c>
       <c r="K15" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>139863102765096</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.86 minutes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:04:43</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>139863102765096</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.59 minutes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:18:57</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>139863102765096</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.91 minutes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:36:43</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>139863258720298</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.05 minutes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ConvNext-[29M]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:39:57</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>139863258720298</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.88 minutes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:42:18</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>139863258720298</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.88 minutes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:44:29</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>139863342313515</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.21 minutes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:49:48</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>139863342313515</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.12 minutes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-04-29 15:00:14</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>139863342313515</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.98 minutes</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-04-29 15:13:26</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>139863102765096</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.59 minutes</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-04-29 16:35:46</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>139863102765096</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.74 minutes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:20:01</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>139863102765096</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.21 minutes</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:42:33</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>139863258720298</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.79 minutes</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ConvNext-[29M]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:45:12</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>139863258720298</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.88 minutes</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:47:23</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>139863258720298</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.86 minutes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:50:05</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>139863342313515</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.99 minutes</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>87%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:55:27</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>139863342313515</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.59 minutes</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2025-04-29 19:06:20</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>139863342313515</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.97 minutes</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-04-29 19:19:50</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Epochs/reports/report.xlsx
+++ b/Epochs/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,10 +1620,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>139863102765096</t>
-        </is>
+      <c r="C25" t="n">
+        <v>139863102765096</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1650,11 +1648,7 @@
           <t>94%</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>2025-04-29 16:35:46</t>
@@ -1675,10 +1669,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>139863102765096</t>
-        </is>
+      <c r="C26" t="n">
+        <v>139863102765096</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1705,11 +1697,7 @@
           <t>95%</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
           <t>2025-04-29 18:20:01</t>
@@ -1730,10 +1718,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>139863102765096</t>
-        </is>
+      <c r="C27" t="n">
+        <v>139863102765096</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1760,11 +1746,7 @@
           <t>94%</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
           <t>2025-04-29 18:42:33</t>
@@ -1785,10 +1767,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>139863258720298</t>
-        </is>
+      <c r="C28" t="n">
+        <v>139863258720298</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1815,11 +1795,7 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
           <t>2025-04-29 18:45:12</t>
@@ -1840,10 +1816,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>139863258720298</t>
-        </is>
+      <c r="C29" t="n">
+        <v>139863258720298</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1870,11 +1844,7 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
           <t>2025-04-29 18:47:23</t>
@@ -1895,10 +1865,8 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>139863258720298</t>
-        </is>
+      <c r="C30" t="n">
+        <v>139863258720298</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1925,11 +1893,7 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>2025-04-29 18:50:05</t>
@@ -1950,10 +1914,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>139863342313515</t>
-        </is>
+      <c r="C31" t="n">
+        <v>139863342313515</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1980,11 +1942,7 @@
           <t>88%</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
           <t>2025-04-29 18:55:27</t>
@@ -2005,10 +1963,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>139863342313515</t>
-        </is>
+      <c r="C32" t="n">
+        <v>139863342313515</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2035,11 +1991,7 @@
           <t>94%</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
           <t>2025-04-29 19:06:20</t>
@@ -2060,47 +2012,536 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>139863342313515</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.97 minutes</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-04-29 19:19:50</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>139863102765096</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.02 minutes</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:20:27</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>139863102765096</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.59 minutes</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:36:13</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>139863102765096</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.58 minutes</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>{'height': 600, 'width': 600, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:54:32</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>139863258720298</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.24 minutes</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ConvNext-[29M]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:57:10</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>139863258720298</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.73 minutes</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2025-06-10 12:00:02</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>139863258720298</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.82 minutes</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ConvNext-[16M]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>{'height': 512, 'width': 512, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-06-10 12:02:17</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>139863342313515</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>11.97 minutes</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.09 minutes</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>SegFormer-[14M]</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-06-10 12:07:35</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>139863342313515</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.59 minutes</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-06-10 12:18:05</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>139863342313515</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.06 minutes</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>{'height': 800, 'width': 800, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>95%</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2025-04-29 19:19:50</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-06-10 12:31:35</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>150</v>
       </c>
     </row>
